--- a/public/customer_template.xlsx
+++ b/public/customer_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\prime\ETAX_PACIFICI\reportsale_vue\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D8E1C-940C-43DB-BFE4-14B18BEF6829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50006993-3262-4652-A0BD-B19B72587787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EA50F98-EF31-4D9C-BF4D-5D94E13160D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CustomerCode (PRIME-Oracle)</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Customer Group 1 From OMS</t>
+  </si>
+  <si>
+    <t>ShipTo Address Code (From OMS)</t>
+  </si>
+  <si>
+    <t>Ship To Address (From OMS)</t>
+  </si>
+  <si>
+    <t>Bill To Code (From OMS)</t>
+  </si>
+  <si>
+    <t>Billing Address (From OMS)</t>
   </si>
 </sst>
 </file>
@@ -446,16 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A65CECD-FC8F-44CC-8061-1E3E77734E5E}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="27" customWidth="1"/>
+    <col min="1" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,9 +491,22 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>